--- a/biology/Zoologie/Etmopterus_pusillus/Etmopterus_pusillus.xlsx
+++ b/biology/Zoologie/Etmopterus_pusillus/Etmopterus_pusillus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Etmopterus pusillus est une espèce de poissons abyssaux de la famille des Etmopteridae.
 </t>
@@ -511,16 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce peut atteindre 48 cm de long.
 Etmopterus pusillus est long et mince avec une longue queue. Sa tête est plate, avec un museau épais, court et plat.
 La deuxième nageoire dorsale est beaucoup plus grande que la première, elle fait presque deux fois sa taille.
 Il est brun pâle ou brun foncé.
-Reproduction
-Ce poisson est ovovivipare.
-Alimentation
-Etmopterus pusillus se nourrit d'œufs de poissons, de poissons-lanternes et de calmars.
 </t>
         </is>
       </c>
@@ -546,10 +556,90 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce poisson est ovovivipare.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Etmopterus_pusillus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Etmopterus_pusillus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Etmopterus pusillus se nourrit d'œufs de poissons, de poissons-lanternes et de calmars.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Etmopterus_pusillus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Etmopterus_pusillus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre au sud du Brésil, en Argentine, au Portugal, en Namibie, en Australie, en Nouvelle-Zélande et au Japon. Un spécimen a été prélevé au large des Guyanes.
 </t>
